--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Vegfa-Gpc1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Vegfa-Gpc1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.33882037536764</v>
+        <v>1.454188</v>
       </c>
       <c r="H2">
-        <v>1.33882037536764</v>
+        <v>4.362564</v>
       </c>
       <c r="I2">
-        <v>0.01098701518944327</v>
+        <v>0.01142919054758268</v>
       </c>
       <c r="J2">
-        <v>0.01098701518944327</v>
+        <v>0.01142919054758268</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.215800143040077</v>
+        <v>0.311426</v>
       </c>
       <c r="N2">
-        <v>0.215800143040077</v>
+        <v>0.9342779999999999</v>
       </c>
       <c r="O2">
-        <v>0.004929155832123615</v>
+        <v>0.006160792721660773</v>
       </c>
       <c r="P2">
-        <v>0.004929155832123615</v>
+        <v>0.006160792721660772</v>
       </c>
       <c r="Q2">
-        <v>0.2889176285093063</v>
+        <v>0.452871952088</v>
       </c>
       <c r="R2">
-        <v>0.2889176285093063</v>
+        <v>4.075847568792</v>
       </c>
       <c r="S2">
-        <v>5.415670999867502E-05</v>
+        <v>7.041287394002148E-05</v>
       </c>
       <c r="T2">
-        <v>5.415670999867502E-05</v>
+        <v>7.041287394002147E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.33882037536764</v>
+        <v>1.454188</v>
       </c>
       <c r="H3">
-        <v>1.33882037536764</v>
+        <v>4.362564</v>
       </c>
       <c r="I3">
-        <v>0.01098701518944327</v>
+        <v>0.01142919054758268</v>
       </c>
       <c r="J3">
-        <v>0.01098701518944327</v>
+        <v>0.01142919054758268</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.21890783494042</v>
+        <v>6.318962</v>
       </c>
       <c r="N3">
-        <v>6.21890783494042</v>
+        <v>18.956886</v>
       </c>
       <c r="O3">
-        <v>0.1420479402478568</v>
+        <v>0.1250050255856961</v>
       </c>
       <c r="P3">
-        <v>0.1420479402478568</v>
+        <v>0.1250050255856961</v>
       </c>
       <c r="Q3">
-        <v>8.326000521951689</v>
+        <v>9.188958712856</v>
       </c>
       <c r="R3">
-        <v>8.326000521951689</v>
+        <v>82.700628415704</v>
       </c>
       <c r="S3">
-        <v>0.001560682877132332</v>
+        <v>0.001428706256824369</v>
       </c>
       <c r="T3">
-        <v>0.001560682877132332</v>
+        <v>0.001428706256824369</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.33882037536764</v>
+        <v>1.454188</v>
       </c>
       <c r="H4">
-        <v>1.33882037536764</v>
+        <v>4.362564</v>
       </c>
       <c r="I4">
-        <v>0.01098701518944327</v>
+        <v>0.01142919054758268</v>
       </c>
       <c r="J4">
-        <v>0.01098701518944327</v>
+        <v>0.01142919054758268</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.816075826342838</v>
+        <v>1.464670666666667</v>
       </c>
       <c r="N4">
-        <v>0.816075826342838</v>
+        <v>4.394012</v>
       </c>
       <c r="O4">
-        <v>0.01864023286641591</v>
+        <v>0.02897488450813366</v>
       </c>
       <c r="P4">
-        <v>0.01864023286641591</v>
+        <v>0.02897488450813366</v>
       </c>
       <c r="Q4">
-        <v>1.092578944152775</v>
+        <v>2.129906507418667</v>
       </c>
       <c r="R4">
-        <v>1.092578944152775</v>
+        <v>19.169158566768</v>
       </c>
       <c r="S4">
-        <v>0.0002048005216380712</v>
+        <v>0.0003311594761376611</v>
       </c>
       <c r="T4">
-        <v>0.0002048005216380712</v>
+        <v>0.0003311594761376611</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.33882037536764</v>
+        <v>1.454188</v>
       </c>
       <c r="H5">
-        <v>1.33882037536764</v>
+        <v>4.362564</v>
       </c>
       <c r="I5">
-        <v>0.01098701518944327</v>
+        <v>0.01142919054758268</v>
       </c>
       <c r="J5">
-        <v>0.01098701518944327</v>
+        <v>0.01142919054758268</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.785572869324936</v>
+        <v>0.8538963333333333</v>
       </c>
       <c r="N5">
-        <v>0.785572869324936</v>
+        <v>2.561689</v>
       </c>
       <c r="O5">
-        <v>0.01794350567076301</v>
+        <v>0.01689222581111667</v>
       </c>
       <c r="P5">
-        <v>0.01794350567076301</v>
+        <v>0.01689222581111667</v>
       </c>
       <c r="Q5">
-        <v>1.051740963788245</v>
+        <v>1.241725801177333</v>
       </c>
       <c r="R5">
-        <v>1.051740963788245</v>
+        <v>11.175532210596</v>
       </c>
       <c r="S5">
-        <v>0.0001971455693565346</v>
+        <v>0.0001930644675680469</v>
       </c>
       <c r="T5">
-        <v>0.0001971455693565346</v>
+        <v>0.0001930644675680469</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.33882037536764</v>
+        <v>1.454188</v>
       </c>
       <c r="H6">
-        <v>1.33882037536764</v>
+        <v>4.362564</v>
       </c>
       <c r="I6">
-        <v>0.01098701518944327</v>
+        <v>0.01142919054758268</v>
       </c>
       <c r="J6">
-        <v>0.01098701518944327</v>
+        <v>0.01142919054758268</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.28679137706662</v>
+        <v>2.347788333333333</v>
       </c>
       <c r="N6">
-        <v>2.28679137706662</v>
+        <v>7.043365</v>
       </c>
       <c r="O6">
-        <v>0.05223328814487658</v>
+        <v>0.04644518208498994</v>
       </c>
       <c r="P6">
-        <v>0.05223328814487658</v>
+        <v>0.04644518208498993</v>
       </c>
       <c r="Q6">
-        <v>3.061602889831815</v>
+        <v>3.414125620873333</v>
       </c>
       <c r="R6">
-        <v>3.061602889831815</v>
+        <v>30.72713058786</v>
       </c>
       <c r="S6">
-        <v>0.0005738879302423258</v>
+        <v>0.0005308308360665235</v>
       </c>
       <c r="T6">
-        <v>0.0005738879302423258</v>
+        <v>0.0005308308360665235</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.33882037536764</v>
+        <v>1.454188</v>
       </c>
       <c r="H7">
-        <v>1.33882037536764</v>
+        <v>4.362564</v>
       </c>
       <c r="I7">
-        <v>0.01098701518944327</v>
+        <v>0.01142919054758268</v>
       </c>
       <c r="J7">
-        <v>0.01098701518944327</v>
+        <v>0.01142919054758268</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>33.4571969799076</v>
+        <v>39.25292033333333</v>
       </c>
       <c r="N7">
-        <v>33.4571969799076</v>
+        <v>117.758761</v>
       </c>
       <c r="O7">
-        <v>0.7642058772379641</v>
+        <v>0.7765218892884028</v>
       </c>
       <c r="P7">
-        <v>0.7642058772379641</v>
+        <v>0.7765218892884028</v>
       </c>
       <c r="Q7">
-        <v>44.79317701938896</v>
+        <v>57.08112571368932</v>
       </c>
       <c r="R7">
-        <v>44.79317701938896</v>
+        <v>513.7301314232039</v>
       </c>
       <c r="S7">
-        <v>0.008396341581075327</v>
+        <v>0.008875016637046059</v>
       </c>
       <c r="T7">
-        <v>0.008396341581075327</v>
+        <v>0.008875016637046059</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>22.3414438221035</v>
+        <v>22.79785</v>
       </c>
       <c r="H8">
-        <v>22.3414438221035</v>
+        <v>68.39354999999999</v>
       </c>
       <c r="I8">
-        <v>0.1833448214142541</v>
+        <v>0.1791797014727173</v>
       </c>
       <c r="J8">
-        <v>0.1833448214142541</v>
+        <v>0.1791797014727173</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.215800143040077</v>
+        <v>0.311426</v>
       </c>
       <c r="N8">
-        <v>0.215800143040077</v>
+        <v>0.9342779999999999</v>
       </c>
       <c r="O8">
-        <v>0.004929155832123615</v>
+        <v>0.006160792721660773</v>
       </c>
       <c r="P8">
-        <v>0.004929155832123615</v>
+        <v>0.006160792721660772</v>
       </c>
       <c r="Q8">
-        <v>4.82128677253178</v>
+        <v>7.099843234099999</v>
       </c>
       <c r="R8">
-        <v>4.82128677253178</v>
+        <v>63.89858910689999</v>
       </c>
       <c r="S8">
-        <v>0.000903735195763733</v>
+        <v>0.001103889000702467</v>
       </c>
       <c r="T8">
-        <v>0.000903735195763733</v>
+        <v>0.001103889000702467</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>22.3414438221035</v>
+        <v>22.79785</v>
       </c>
       <c r="H9">
-        <v>22.3414438221035</v>
+        <v>68.39354999999999</v>
       </c>
       <c r="I9">
-        <v>0.1833448214142541</v>
+        <v>0.1791797014727173</v>
       </c>
       <c r="J9">
-        <v>0.1833448214142541</v>
+        <v>0.1791797014727173</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.21890783494042</v>
+        <v>6.318962</v>
       </c>
       <c r="N9">
-        <v>6.21890783494042</v>
+        <v>18.956886</v>
       </c>
       <c r="O9">
-        <v>0.1420479402478568</v>
+        <v>0.1250050255856961</v>
       </c>
       <c r="P9">
-        <v>0.1420479402478568</v>
+        <v>0.1250050255856961</v>
       </c>
       <c r="Q9">
-        <v>138.9393800291607</v>
+        <v>144.0587478317</v>
       </c>
       <c r="R9">
-        <v>138.9393800291607</v>
+        <v>1296.5287304853</v>
       </c>
       <c r="S9">
-        <v>0.02604375423700594</v>
+        <v>0.02239836316703442</v>
       </c>
       <c r="T9">
-        <v>0.02604375423700594</v>
+        <v>0.02239836316703442</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>22.3414438221035</v>
+        <v>22.79785</v>
       </c>
       <c r="H10">
-        <v>22.3414438221035</v>
+        <v>68.39354999999999</v>
       </c>
       <c r="I10">
-        <v>0.1833448214142541</v>
+        <v>0.1791797014727173</v>
       </c>
       <c r="J10">
-        <v>0.1833448214142541</v>
+        <v>0.1791797014727173</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.816075826342838</v>
+        <v>1.464670666666667</v>
       </c>
       <c r="N10">
-        <v>0.816075826342838</v>
+        <v>4.394012</v>
       </c>
       <c r="O10">
-        <v>0.01864023286641591</v>
+        <v>0.02897488450813366</v>
       </c>
       <c r="P10">
-        <v>0.01864023286641591</v>
+        <v>0.02897488450813366</v>
       </c>
       <c r="Q10">
-        <v>18.23231222881521</v>
+        <v>33.39134215806666</v>
       </c>
       <c r="R10">
-        <v>18.23231222881521</v>
+        <v>300.5220794226</v>
       </c>
       <c r="S10">
-        <v>0.003417590166013135</v>
+        <v>0.00519171115637385</v>
       </c>
       <c r="T10">
-        <v>0.003417590166013135</v>
+        <v>0.00519171115637385</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>22.3414438221035</v>
+        <v>22.79785</v>
       </c>
       <c r="H11">
-        <v>22.3414438221035</v>
+        <v>68.39354999999999</v>
       </c>
       <c r="I11">
-        <v>0.1833448214142541</v>
+        <v>0.1791797014727173</v>
       </c>
       <c r="J11">
-        <v>0.1833448214142541</v>
+        <v>0.1791797014727173</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.785572869324936</v>
+        <v>0.8538963333333333</v>
       </c>
       <c r="N11">
-        <v>0.785572869324936</v>
+        <v>2.561689</v>
       </c>
       <c r="O11">
-        <v>0.01794350567076301</v>
+        <v>0.01689222581111667</v>
       </c>
       <c r="P11">
-        <v>0.01794350567076301</v>
+        <v>0.01689222581111667</v>
       </c>
       <c r="Q11">
-        <v>17.55083212819171</v>
+        <v>19.46700052288333</v>
       </c>
       <c r="R11">
-        <v>17.55083212819171</v>
+        <v>175.20300470595</v>
       </c>
       <c r="S11">
-        <v>0.0032898488427517</v>
+        <v>0.003026743978045615</v>
       </c>
       <c r="T11">
-        <v>0.0032898488427517</v>
+        <v>0.003026743978045615</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>22.3414438221035</v>
+        <v>22.79785</v>
       </c>
       <c r="H12">
-        <v>22.3414438221035</v>
+        <v>68.39354999999999</v>
       </c>
       <c r="I12">
-        <v>0.1833448214142541</v>
+        <v>0.1791797014727173</v>
       </c>
       <c r="J12">
-        <v>0.1833448214142541</v>
+        <v>0.1791797014727173</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.28679137706662</v>
+        <v>2.347788333333333</v>
       </c>
       <c r="N12">
-        <v>2.28679137706662</v>
+        <v>7.043365</v>
       </c>
       <c r="O12">
-        <v>0.05223328814487658</v>
+        <v>0.04644518208498994</v>
       </c>
       <c r="P12">
-        <v>0.05223328814487658</v>
+        <v>0.04644518208498993</v>
       </c>
       <c r="Q12">
-        <v>51.0902210836046</v>
+        <v>53.52452625508332</v>
       </c>
       <c r="R12">
-        <v>51.0902210836046</v>
+        <v>481.7207362957499</v>
       </c>
       <c r="S12">
-        <v>0.00957670288680167</v>
+        <v>0.008322033860834493</v>
       </c>
       <c r="T12">
-        <v>0.00957670288680167</v>
+        <v>0.008322033860834493</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>22.3414438221035</v>
+        <v>22.79785</v>
       </c>
       <c r="H13">
-        <v>22.3414438221035</v>
+        <v>68.39354999999999</v>
       </c>
       <c r="I13">
-        <v>0.1833448214142541</v>
+        <v>0.1791797014727173</v>
       </c>
       <c r="J13">
-        <v>0.1833448214142541</v>
+        <v>0.1791797014727173</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>33.4571969799076</v>
+        <v>39.25292033333333</v>
       </c>
       <c r="N13">
-        <v>33.4571969799076</v>
+        <v>117.758761</v>
       </c>
       <c r="O13">
-        <v>0.7642058772379641</v>
+        <v>0.7765218892884028</v>
       </c>
       <c r="P13">
-        <v>0.7642058772379641</v>
+        <v>0.7765218892884028</v>
       </c>
       <c r="Q13">
-        <v>747.4820867716566</v>
+        <v>894.8821898212831</v>
       </c>
       <c r="R13">
-        <v>747.4820867716566</v>
+        <v>8053.939708391548</v>
       </c>
       <c r="S13">
-        <v>0.1401131900859179</v>
+        <v>0.1391369603097264</v>
       </c>
       <c r="T13">
-        <v>0.1401131900859179</v>
+        <v>0.1391369603097264</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>9.52005426958975</v>
+        <v>11.79385566666667</v>
       </c>
       <c r="H14">
-        <v>9.52005426958975</v>
+        <v>35.381567</v>
       </c>
       <c r="I14">
-        <v>0.07812622424093633</v>
+        <v>0.09269380830059187</v>
       </c>
       <c r="J14">
-        <v>0.07812622424093633</v>
+        <v>0.09269380830059187</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.215800143040077</v>
+        <v>0.311426</v>
       </c>
       <c r="N14">
-        <v>0.215800143040077</v>
+        <v>0.9342779999999999</v>
       </c>
       <c r="O14">
-        <v>0.004929155832123615</v>
+        <v>0.006160792721660773</v>
       </c>
       <c r="P14">
-        <v>0.004929155832123615</v>
+        <v>0.006160792721660772</v>
       </c>
       <c r="Q14">
-        <v>2.054429073126764</v>
+        <v>3.672913294847333</v>
       </c>
       <c r="R14">
-        <v>2.054429073126764</v>
+        <v>33.05621965362599</v>
       </c>
       <c r="S14">
-        <v>0.0003850963338590087</v>
+        <v>0.0005710673395213054</v>
       </c>
       <c r="T14">
-        <v>0.0003850963338590087</v>
+        <v>0.0005710673395213052</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>9.52005426958975</v>
+        <v>11.79385566666667</v>
       </c>
       <c r="H15">
-        <v>9.52005426958975</v>
+        <v>35.381567</v>
       </c>
       <c r="I15">
-        <v>0.07812622424093633</v>
+        <v>0.09269380830059187</v>
       </c>
       <c r="J15">
-        <v>0.07812622424093633</v>
+        <v>0.09269380830059187</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.21890783494042</v>
+        <v>6.318962</v>
       </c>
       <c r="N15">
-        <v>6.21890783494042</v>
+        <v>18.956886</v>
       </c>
       <c r="O15">
-        <v>0.1420479402478568</v>
+        <v>0.1250050255856961</v>
       </c>
       <c r="P15">
-        <v>0.1420479402478568</v>
+        <v>0.1250050255856961</v>
       </c>
       <c r="Q15">
-        <v>59.20434008620969</v>
+        <v>74.52492579115133</v>
       </c>
       <c r="R15">
-        <v>59.20434008620969</v>
+        <v>670.724332120362</v>
       </c>
       <c r="S15">
-        <v>0.01109766923276719</v>
+        <v>0.0115871918782511</v>
       </c>
       <c r="T15">
-        <v>0.01109766923276719</v>
+        <v>0.0115871918782511</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9.52005426958975</v>
+        <v>11.79385566666667</v>
       </c>
       <c r="H16">
-        <v>9.52005426958975</v>
+        <v>35.381567</v>
       </c>
       <c r="I16">
-        <v>0.07812622424093633</v>
+        <v>0.09269380830059187</v>
       </c>
       <c r="J16">
-        <v>0.07812622424093633</v>
+        <v>0.09269380830059187</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.816075826342838</v>
+        <v>1.464670666666667</v>
       </c>
       <c r="N16">
-        <v>0.816075826342838</v>
+        <v>4.394012</v>
       </c>
       <c r="O16">
-        <v>0.01864023286641591</v>
+        <v>0.02897488450813366</v>
       </c>
       <c r="P16">
-        <v>0.01864023286641591</v>
+        <v>0.02897488450813366</v>
       </c>
       <c r="Q16">
-        <v>7.769086154884119</v>
+        <v>17.27411444186711</v>
       </c>
       <c r="R16">
-        <v>7.769086154884119</v>
+        <v>155.467029976804</v>
       </c>
       <c r="S16">
-        <v>0.001456291012824881</v>
+        <v>0.002685792390128731</v>
       </c>
       <c r="T16">
-        <v>0.001456291012824881</v>
+        <v>0.00268579239012873</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>9.52005426958975</v>
+        <v>11.79385566666667</v>
       </c>
       <c r="H17">
-        <v>9.52005426958975</v>
+        <v>35.381567</v>
       </c>
       <c r="I17">
-        <v>0.07812622424093633</v>
+        <v>0.09269380830059187</v>
       </c>
       <c r="J17">
-        <v>0.07812622424093633</v>
+        <v>0.09269380830059187</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.785572869324936</v>
+        <v>0.8538963333333333</v>
       </c>
       <c r="N17">
-        <v>0.785572869324936</v>
+        <v>2.561689</v>
       </c>
       <c r="O17">
-        <v>0.01794350567076301</v>
+        <v>0.01689222581111667</v>
       </c>
       <c r="P17">
-        <v>0.01794350567076301</v>
+        <v>0.01689222581111667</v>
       </c>
       <c r="Q17">
-        <v>7.478696348690727</v>
+        <v>10.07073010962922</v>
       </c>
       <c r="R17">
-        <v>7.478696348690727</v>
+        <v>90.63657098666299</v>
       </c>
       <c r="S17">
-        <v>0.001401858347702544</v>
+        <v>0.001565804741105959</v>
       </c>
       <c r="T17">
-        <v>0.001401858347702544</v>
+        <v>0.001565804741105959</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>9.52005426958975</v>
+        <v>11.79385566666667</v>
       </c>
       <c r="H18">
-        <v>9.52005426958975</v>
+        <v>35.381567</v>
       </c>
       <c r="I18">
-        <v>0.07812622424093633</v>
+        <v>0.09269380830059187</v>
       </c>
       <c r="J18">
-        <v>0.07812622424093633</v>
+        <v>0.09269380830059187</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.28679137706662</v>
+        <v>2.347788333333333</v>
       </c>
       <c r="N18">
-        <v>2.28679137706662</v>
+        <v>7.043365</v>
       </c>
       <c r="O18">
-        <v>0.05223328814487658</v>
+        <v>0.04644518208498994</v>
       </c>
       <c r="P18">
-        <v>0.05223328814487658</v>
+        <v>0.04644518208498993</v>
       </c>
       <c r="Q18">
-        <v>21.7703780129041</v>
+        <v>27.68947673921722</v>
       </c>
       <c r="R18">
-        <v>21.7703780129041</v>
+        <v>249.205290652955</v>
       </c>
       <c r="S18">
-        <v>0.004080789582448069</v>
+        <v>0.004305180804672142</v>
       </c>
       <c r="T18">
-        <v>0.004080789582448069</v>
+        <v>0.004305180804672141</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>9.52005426958975</v>
+        <v>11.79385566666667</v>
       </c>
       <c r="H19">
-        <v>9.52005426958975</v>
+        <v>35.381567</v>
       </c>
       <c r="I19">
-        <v>0.07812622424093633</v>
+        <v>0.09269380830059187</v>
       </c>
       <c r="J19">
-        <v>0.07812622424093633</v>
+        <v>0.09269380830059187</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>33.4571969799076</v>
+        <v>39.25292033333333</v>
       </c>
       <c r="N19">
-        <v>33.4571969799076</v>
+        <v>117.758761</v>
       </c>
       <c r="O19">
-        <v>0.7642058772379641</v>
+        <v>0.7765218892884028</v>
       </c>
       <c r="P19">
-        <v>0.7642058772379641</v>
+        <v>0.7765218892884028</v>
       </c>
       <c r="Q19">
-        <v>318.5143309570746</v>
+        <v>462.9432769064985</v>
       </c>
       <c r="R19">
-        <v>318.5143309570746</v>
+        <v>4166.489492158486</v>
       </c>
       <c r="S19">
-        <v>0.05970451973133464</v>
+        <v>0.07197877114691263</v>
       </c>
       <c r="T19">
-        <v>0.05970451973133464</v>
+        <v>0.07197877114691263</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>11.1044453012939</v>
+        <v>11.85926133333333</v>
       </c>
       <c r="H20">
-        <v>11.1044453012939</v>
+        <v>35.577784</v>
       </c>
       <c r="I20">
-        <v>0.09112851241314242</v>
+        <v>0.09320786413603065</v>
       </c>
       <c r="J20">
-        <v>0.09112851241314242</v>
+        <v>0.09320786413603065</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.215800143040077</v>
+        <v>0.311426</v>
       </c>
       <c r="N20">
-        <v>0.215800143040077</v>
+        <v>0.9342779999999999</v>
       </c>
       <c r="O20">
-        <v>0.004929155832123615</v>
+        <v>0.006160792721660773</v>
       </c>
       <c r="P20">
-        <v>0.004929155832123615</v>
+        <v>0.006160792721660772</v>
       </c>
       <c r="Q20">
-        <v>2.396340884399935</v>
+        <v>3.693282319994667</v>
       </c>
       <c r="R20">
-        <v>2.396340884399935</v>
+        <v>33.239540879952</v>
       </c>
       <c r="S20">
-        <v>0.0004491866384339902</v>
+        <v>0.0005742343309708038</v>
       </c>
       <c r="T20">
-        <v>0.0004491866384339902</v>
+        <v>0.0005742343309708037</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>11.1044453012939</v>
+        <v>11.85926133333333</v>
       </c>
       <c r="H21">
-        <v>11.1044453012939</v>
+        <v>35.577784</v>
       </c>
       <c r="I21">
-        <v>0.09112851241314242</v>
+        <v>0.09320786413603065</v>
       </c>
       <c r="J21">
-        <v>0.09112851241314242</v>
+        <v>0.09320786413603065</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>6.21890783494042</v>
+        <v>6.318962</v>
       </c>
       <c r="N21">
-        <v>6.21890783494042</v>
+        <v>18.956886</v>
       </c>
       <c r="O21">
-        <v>0.1420479402478568</v>
+        <v>0.1250050255856961</v>
       </c>
       <c r="P21">
-        <v>0.1420479402478568</v>
+        <v>0.1250050255856961</v>
       </c>
       <c r="Q21">
-        <v>69.05752188688396</v>
+        <v>74.93822171340267</v>
       </c>
       <c r="R21">
-        <v>69.05752188688396</v>
+        <v>674.4439954206241</v>
       </c>
       <c r="S21">
-        <v>0.01294461748613813</v>
+        <v>0.0116514514411126</v>
       </c>
       <c r="T21">
-        <v>0.01294461748613813</v>
+        <v>0.0116514514411126</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>11.1044453012939</v>
+        <v>11.85926133333333</v>
       </c>
       <c r="H22">
-        <v>11.1044453012939</v>
+        <v>35.577784</v>
       </c>
       <c r="I22">
-        <v>0.09112851241314242</v>
+        <v>0.09320786413603065</v>
       </c>
       <c r="J22">
-        <v>0.09112851241314242</v>
+        <v>0.09320786413603065</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.816075826342838</v>
+        <v>1.464670666666667</v>
       </c>
       <c r="N22">
-        <v>0.816075826342838</v>
+        <v>4.394012</v>
       </c>
       <c r="O22">
-        <v>0.01864023286641591</v>
+        <v>0.02897488450813366</v>
       </c>
       <c r="P22">
-        <v>0.01864023286641591</v>
+        <v>0.02897488450813366</v>
       </c>
       <c r="Q22">
-        <v>9.062069375332264</v>
+        <v>17.36991220326756</v>
       </c>
       <c r="R22">
-        <v>9.062069375332264</v>
+        <v>156.329209829408</v>
       </c>
       <c r="S22">
-        <v>0.001698656692151048</v>
+        <v>0.002700687098591301</v>
       </c>
       <c r="T22">
-        <v>0.001698656692151048</v>
+        <v>0.002700687098591301</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>11.1044453012939</v>
+        <v>11.85926133333333</v>
       </c>
       <c r="H23">
-        <v>11.1044453012939</v>
+        <v>35.577784</v>
       </c>
       <c r="I23">
-        <v>0.09112851241314242</v>
+        <v>0.09320786413603065</v>
       </c>
       <c r="J23">
-        <v>0.09112851241314242</v>
+        <v>0.09320786413603065</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.785572869324936</v>
+        <v>0.8538963333333333</v>
       </c>
       <c r="N23">
-        <v>0.785572869324936</v>
+        <v>2.561689</v>
       </c>
       <c r="O23">
-        <v>0.01794350567076301</v>
+        <v>0.01689222581111667</v>
       </c>
       <c r="P23">
-        <v>0.01794350567076301</v>
+        <v>0.01689222581111667</v>
       </c>
       <c r="Q23">
-        <v>8.723350957599253</v>
+        <v>10.12657976857511</v>
       </c>
       <c r="R23">
-        <v>8.723350957599253</v>
+        <v>91.139217917176</v>
       </c>
       <c r="S23">
-        <v>0.001635164979253419</v>
+        <v>0.001574488288357713</v>
       </c>
       <c r="T23">
-        <v>0.001635164979253419</v>
+        <v>0.001574488288357713</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>11.1044453012939</v>
+        <v>11.85926133333333</v>
       </c>
       <c r="H24">
-        <v>11.1044453012939</v>
+        <v>35.577784</v>
       </c>
       <c r="I24">
-        <v>0.09112851241314242</v>
+        <v>0.09320786413603065</v>
       </c>
       <c r="J24">
-        <v>0.09112851241314242</v>
+        <v>0.09320786413603065</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.28679137706662</v>
+        <v>2.347788333333333</v>
       </c>
       <c r="N24">
-        <v>2.28679137706662</v>
+        <v>7.043365</v>
       </c>
       <c r="O24">
-        <v>0.05223328814487658</v>
+        <v>0.04644518208498994</v>
       </c>
       <c r="P24">
-        <v>0.05223328814487658</v>
+        <v>0.04644518208498993</v>
       </c>
       <c r="Q24">
-        <v>25.39354976210684</v>
+        <v>27.84303540035111</v>
       </c>
       <c r="R24">
-        <v>25.39354976210684</v>
+        <v>250.58731860316</v>
       </c>
       <c r="S24">
-        <v>0.00475994184708963</v>
+        <v>0.004329056221550947</v>
       </c>
       <c r="T24">
-        <v>0.00475994184708963</v>
+        <v>0.004329056221550946</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>11.1044453012939</v>
+        <v>11.85926133333333</v>
       </c>
       <c r="H25">
-        <v>11.1044453012939</v>
+        <v>35.577784</v>
       </c>
       <c r="I25">
-        <v>0.09112851241314242</v>
+        <v>0.09320786413603065</v>
       </c>
       <c r="J25">
-        <v>0.09112851241314242</v>
+        <v>0.09320786413603065</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>33.4571969799076</v>
+        <v>39.25292033333333</v>
       </c>
       <c r="N25">
-        <v>33.4571969799076</v>
+        <v>117.758761</v>
       </c>
       <c r="O25">
-        <v>0.7642058772379641</v>
+        <v>0.7765218892884028</v>
       </c>
       <c r="P25">
-        <v>0.7642058772379641</v>
+        <v>0.7765218892884028</v>
       </c>
       <c r="Q25">
-        <v>371.5236137979994</v>
+        <v>465.5106403295138</v>
       </c>
       <c r="R25">
-        <v>371.5236137979994</v>
+        <v>4189.595762965624</v>
       </c>
       <c r="S25">
-        <v>0.06964094477007619</v>
+        <v>0.07237794675544729</v>
       </c>
       <c r="T25">
-        <v>0.06964094477007619</v>
+        <v>0.07237794675544729</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>70.10231750422879</v>
+        <v>71.30949033333333</v>
       </c>
       <c r="H26">
-        <v>70.10231750422879</v>
+        <v>213.928471</v>
       </c>
       <c r="I26">
-        <v>0.5752939239684302</v>
+        <v>0.5604569373909507</v>
       </c>
       <c r="J26">
-        <v>0.5752939239684302</v>
+        <v>0.5604569373909508</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.215800143040077</v>
+        <v>0.311426</v>
       </c>
       <c r="N26">
-        <v>0.215800143040077</v>
+        <v>0.9342779999999999</v>
       </c>
       <c r="O26">
-        <v>0.004929155832123615</v>
+        <v>0.006160792721660773</v>
       </c>
       <c r="P26">
-        <v>0.004929155832123615</v>
+        <v>0.006160792721660772</v>
       </c>
       <c r="Q26">
-        <v>15.12809014485347</v>
+        <v>22.20762933654866</v>
       </c>
       <c r="R26">
-        <v>15.12809014485347</v>
+        <v>199.868664028938</v>
       </c>
       <c r="S26">
-        <v>0.002835713400514267</v>
+        <v>0.003452859020682457</v>
       </c>
       <c r="T26">
-        <v>0.002835713400514267</v>
+        <v>0.003452859020682457</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>70.10231750422879</v>
+        <v>71.30949033333333</v>
       </c>
       <c r="H27">
-        <v>70.10231750422879</v>
+        <v>213.928471</v>
       </c>
       <c r="I27">
-        <v>0.5752939239684302</v>
+        <v>0.5604569373909507</v>
       </c>
       <c r="J27">
-        <v>0.5752939239684302</v>
+        <v>0.5604569373909508</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>6.21890783494042</v>
+        <v>6.318962</v>
       </c>
       <c r="N27">
-        <v>6.21890783494042</v>
+        <v>18.956886</v>
       </c>
       <c r="O27">
-        <v>0.1420479402478568</v>
+        <v>0.1250050255856961</v>
       </c>
       <c r="P27">
-        <v>0.1420479402478568</v>
+        <v>0.1250050255856961</v>
       </c>
       <c r="Q27">
-        <v>435.9598515745294</v>
+        <v>450.6019596557006</v>
       </c>
       <c r="R27">
-        <v>435.9598515745294</v>
+        <v>4055.417636901306</v>
       </c>
       <c r="S27">
-        <v>0.08171931693682266</v>
+        <v>0.07005993379823668</v>
       </c>
       <c r="T27">
-        <v>0.08171931693682266</v>
+        <v>0.07005993379823669</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>70.10231750422879</v>
+        <v>71.30949033333333</v>
       </c>
       <c r="H28">
-        <v>70.10231750422879</v>
+        <v>213.928471</v>
       </c>
       <c r="I28">
-        <v>0.5752939239684302</v>
+        <v>0.5604569373909507</v>
       </c>
       <c r="J28">
-        <v>0.5752939239684302</v>
+        <v>0.5604569373909508</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.816075826342838</v>
+        <v>1.464670666666667</v>
       </c>
       <c r="N28">
-        <v>0.816075826342838</v>
+        <v>4.394012</v>
       </c>
       <c r="O28">
-        <v>0.01864023286641591</v>
+        <v>0.02897488450813366</v>
       </c>
       <c r="P28">
-        <v>0.01864023286641591</v>
+        <v>0.02897488450813366</v>
       </c>
       <c r="Q28">
-        <v>57.20880668581151</v>
+        <v>104.4449187461835</v>
       </c>
       <c r="R28">
-        <v>57.20880668581151</v>
+        <v>940.004268715652</v>
       </c>
       <c r="S28">
-        <v>0.01072361270940571</v>
+        <v>0.01623917503268509</v>
       </c>
       <c r="T28">
-        <v>0.01072361270940571</v>
+        <v>0.0162391750326851</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>70.10231750422879</v>
+        <v>71.30949033333333</v>
       </c>
       <c r="H29">
-        <v>70.10231750422879</v>
+        <v>213.928471</v>
       </c>
       <c r="I29">
-        <v>0.5752939239684302</v>
+        <v>0.5604569373909507</v>
       </c>
       <c r="J29">
-        <v>0.5752939239684302</v>
+        <v>0.5604569373909508</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.785572869324936</v>
+        <v>0.8538963333333333</v>
       </c>
       <c r="N29">
-        <v>0.785572869324936</v>
+        <v>2.561689</v>
       </c>
       <c r="O29">
-        <v>0.01794350567076301</v>
+        <v>0.01689222581111667</v>
       </c>
       <c r="P29">
-        <v>0.01794350567076301</v>
+        <v>0.01689222581111667</v>
       </c>
       <c r="Q29">
-        <v>55.0704787081247</v>
+        <v>60.8909123275021</v>
       </c>
       <c r="R29">
-        <v>55.0704787081247</v>
+        <v>548.0182109475189</v>
       </c>
       <c r="S29">
-        <v>0.01032278978708303</v>
+        <v>0.00946736514381482</v>
       </c>
       <c r="T29">
-        <v>0.01032278978708303</v>
+        <v>0.009467365143814821</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>70.10231750422879</v>
+        <v>71.30949033333333</v>
       </c>
       <c r="H30">
-        <v>70.10231750422879</v>
+        <v>213.928471</v>
       </c>
       <c r="I30">
-        <v>0.5752939239684302</v>
+        <v>0.5604569373909507</v>
       </c>
       <c r="J30">
-        <v>0.5752939239684302</v>
+        <v>0.5604569373909508</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.28679137706662</v>
+        <v>2.347788333333333</v>
       </c>
       <c r="N30">
-        <v>2.28679137706662</v>
+        <v>7.043365</v>
       </c>
       <c r="O30">
-        <v>0.05223328814487658</v>
+        <v>0.04644518208498994</v>
       </c>
       <c r="P30">
-        <v>0.05223328814487658</v>
+        <v>0.04644518208498993</v>
       </c>
       <c r="Q30">
-        <v>160.3093751810568</v>
+        <v>167.4195894605461</v>
       </c>
       <c r="R30">
-        <v>160.3093751810568</v>
+        <v>1506.776305144915</v>
       </c>
       <c r="S30">
-        <v>0.03004949329863973</v>
+        <v>0.02603052450791851</v>
       </c>
       <c r="T30">
-        <v>0.03004949329863973</v>
+        <v>0.02603052450791851</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>70.10231750422879</v>
+        <v>71.30949033333333</v>
       </c>
       <c r="H31">
-        <v>70.10231750422879</v>
+        <v>213.928471</v>
       </c>
       <c r="I31">
-        <v>0.5752939239684302</v>
+        <v>0.5604569373909507</v>
       </c>
       <c r="J31">
-        <v>0.5752939239684302</v>
+        <v>0.5604569373909508</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>33.4571969799076</v>
+        <v>39.25292033333333</v>
       </c>
       <c r="N31">
-        <v>33.4571969799076</v>
+        <v>117.758761</v>
       </c>
       <c r="O31">
-        <v>0.7642058772379641</v>
+        <v>0.7765218892884028</v>
       </c>
       <c r="P31">
-        <v>0.7642058772379641</v>
+        <v>0.7765218892884028</v>
       </c>
       <c r="Q31">
-        <v>2345.427045487007</v>
+        <v>2799.105743064936</v>
       </c>
       <c r="R31">
-        <v>2345.427045487007</v>
+        <v>25191.95168758443</v>
       </c>
       <c r="S31">
-        <v>0.4396429978359648</v>
+        <v>0.4352070798876131</v>
       </c>
       <c r="T31">
-        <v>0.4396429978359648</v>
+        <v>0.4352070798876132</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>7.44770387907695</v>
+        <v>8.019912</v>
       </c>
       <c r="H32">
-        <v>7.44770387907695</v>
+        <v>24.059736</v>
       </c>
       <c r="I32">
-        <v>0.06111950277379369</v>
+        <v>0.06303249815212676</v>
       </c>
       <c r="J32">
-        <v>0.06111950277379369</v>
+        <v>0.06303249815212676</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.215800143040077</v>
+        <v>0.311426</v>
       </c>
       <c r="N32">
-        <v>0.215800143040077</v>
+        <v>0.9342779999999999</v>
       </c>
       <c r="O32">
-        <v>0.004929155832123615</v>
+        <v>0.006160792721660773</v>
       </c>
       <c r="P32">
-        <v>0.004929155832123615</v>
+        <v>0.006160792721660772</v>
       </c>
       <c r="Q32">
-        <v>1.607215562424942</v>
+        <v>2.497609114512</v>
       </c>
       <c r="R32">
-        <v>1.607215562424942</v>
+        <v>22.478482030608</v>
       </c>
       <c r="S32">
-        <v>0.0003012675535539406</v>
+        <v>0.0003883301558437187</v>
       </c>
       <c r="T32">
-        <v>0.0003012675535539406</v>
+        <v>0.0003883301558437186</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>7.44770387907695</v>
+        <v>8.019912</v>
       </c>
       <c r="H33">
-        <v>7.44770387907695</v>
+        <v>24.059736</v>
       </c>
       <c r="I33">
-        <v>0.06111950277379369</v>
+        <v>0.06303249815212676</v>
       </c>
       <c r="J33">
-        <v>0.06111950277379369</v>
+        <v>0.06303249815212676</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>6.21890783494042</v>
+        <v>6.318962</v>
       </c>
       <c r="N33">
-        <v>6.21890783494042</v>
+        <v>18.956886</v>
       </c>
       <c r="O33">
-        <v>0.1420479402478568</v>
+        <v>0.1250050255856961</v>
       </c>
       <c r="P33">
-        <v>0.1420479402478568</v>
+        <v>0.1250050255856961</v>
       </c>
       <c r="Q33">
-        <v>46.3165840059078</v>
+        <v>50.677519171344</v>
       </c>
       <c r="R33">
-        <v>46.3165840059078</v>
+        <v>456.0976725420961</v>
       </c>
       <c r="S33">
-        <v>0.008681899477990565</v>
+        <v>0.00787937904423695</v>
       </c>
       <c r="T33">
-        <v>0.008681899477990565</v>
+        <v>0.00787937904423695</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>7.44770387907695</v>
+        <v>8.019912</v>
       </c>
       <c r="H34">
-        <v>7.44770387907695</v>
+        <v>24.059736</v>
       </c>
       <c r="I34">
-        <v>0.06111950277379369</v>
+        <v>0.06303249815212676</v>
       </c>
       <c r="J34">
-        <v>0.06111950277379369</v>
+        <v>0.06303249815212676</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.816075826342838</v>
+        <v>1.464670666666667</v>
       </c>
       <c r="N34">
-        <v>0.816075826342838</v>
+        <v>4.394012</v>
       </c>
       <c r="O34">
-        <v>0.01864023286641591</v>
+        <v>0.02897488450813366</v>
       </c>
       <c r="P34">
-        <v>0.01864023286641591</v>
+        <v>0.02897488450813366</v>
       </c>
       <c r="Q34">
-        <v>6.077891097474482</v>
+        <v>11.746529855648</v>
       </c>
       <c r="R34">
-        <v>6.077891097474482</v>
+        <v>105.718768700832</v>
       </c>
       <c r="S34">
-        <v>0.001139281764383068</v>
+        <v>0.001826359354217021</v>
       </c>
       <c r="T34">
-        <v>0.001139281764383068</v>
+        <v>0.001826359354217021</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>7.44770387907695</v>
+        <v>8.019912</v>
       </c>
       <c r="H35">
-        <v>7.44770387907695</v>
+        <v>24.059736</v>
       </c>
       <c r="I35">
-        <v>0.06111950277379369</v>
+        <v>0.06303249815212676</v>
       </c>
       <c r="J35">
-        <v>0.06111950277379369</v>
+        <v>0.06303249815212676</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.785572869324936</v>
+        <v>0.8538963333333333</v>
       </c>
       <c r="N35">
-        <v>0.785572869324936</v>
+        <v>2.561689</v>
       </c>
       <c r="O35">
-        <v>0.01794350567076301</v>
+        <v>0.01689222581111667</v>
       </c>
       <c r="P35">
-        <v>0.01794350567076301</v>
+        <v>0.01689222581111667</v>
       </c>
       <c r="Q35">
-        <v>5.850714106168935</v>
+        <v>6.848173450455999</v>
       </c>
       <c r="R35">
-        <v>5.850714106168935</v>
+        <v>61.633561054104</v>
       </c>
       <c r="S35">
-        <v>0.001096698144615783</v>
+        <v>0.00106475919222452</v>
       </c>
       <c r="T35">
-        <v>0.001096698144615783</v>
+        <v>0.00106475919222452</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>7.44770387907695</v>
+        <v>8.019912</v>
       </c>
       <c r="H36">
-        <v>7.44770387907695</v>
+        <v>24.059736</v>
       </c>
       <c r="I36">
-        <v>0.06111950277379369</v>
+        <v>0.06303249815212676</v>
       </c>
       <c r="J36">
-        <v>0.06111950277379369</v>
+        <v>0.06303249815212676</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2.28679137706662</v>
+        <v>2.347788333333333</v>
       </c>
       <c r="N36">
-        <v>2.28679137706662</v>
+        <v>7.043365</v>
       </c>
       <c r="O36">
-        <v>0.05223328814487658</v>
+        <v>0.04644518208498994</v>
       </c>
       <c r="P36">
-        <v>0.05223328814487658</v>
+        <v>0.04644518208498993</v>
       </c>
       <c r="Q36">
-        <v>17.03134500961879</v>
+        <v>18.82905582796</v>
       </c>
       <c r="R36">
-        <v>17.03134500961879</v>
+        <v>169.46150245164</v>
       </c>
       <c r="S36">
-        <v>0.003192472599655149</v>
+        <v>0.002927555853947319</v>
       </c>
       <c r="T36">
-        <v>0.003192472599655149</v>
+        <v>0.002927555853947319</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>7.44770387907695</v>
+        <v>8.019912</v>
       </c>
       <c r="H37">
-        <v>7.44770387907695</v>
+        <v>24.059736</v>
       </c>
       <c r="I37">
-        <v>0.06111950277379369</v>
+        <v>0.06303249815212676</v>
       </c>
       <c r="J37">
-        <v>0.06111950277379369</v>
+        <v>0.06303249815212676</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>33.4571969799076</v>
+        <v>39.25292033333333</v>
       </c>
       <c r="N37">
-        <v>33.4571969799076</v>
+        <v>117.758761</v>
       </c>
       <c r="O37">
-        <v>0.7642058772379641</v>
+        <v>0.7765218892884028</v>
       </c>
       <c r="P37">
-        <v>0.7642058772379641</v>
+        <v>0.7765218892884028</v>
       </c>
       <c r="Q37">
-        <v>249.1792957302994</v>
+        <v>314.8049668163439</v>
       </c>
       <c r="R37">
-        <v>249.1792957302994</v>
+        <v>2833.244701347096</v>
       </c>
       <c r="S37">
-        <v>0.04670788323359518</v>
+        <v>0.04894611455165723</v>
       </c>
       <c r="T37">
-        <v>0.04670788323359518</v>
+        <v>0.04894611455165723</v>
       </c>
     </row>
   </sheetData>
